--- a/template/brackets.xlsx
+++ b/template/brackets.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>BRACKETS</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>()(</t>
+  </si>
+  <si>
+    <t>{[]}</t>
   </si>
 </sst>
 </file>
@@ -358,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,6 +397,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/template/brackets.xlsx
+++ b/template/brackets.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>BRACKETS</t>
-  </si>
-  <si>
     <t>({[()]})</t>
   </si>
   <si>
@@ -37,6 +34,9 @@
   </si>
   <si>
     <t>{[]}</t>
+  </si>
+  <si>
+    <t>()</t>
   </si>
 </sst>
 </file>
@@ -61,7 +61,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +364,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,32 +374,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
